--- a/tables_and_figures/output/rmse_by_office_year.xlsx
+++ b/tables_and_figures/output/rmse_by_office_year.xlsx
@@ -474,7 +474,9 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>3.536391946991341</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
         <v>2.934563895521161</v>
@@ -499,12 +501,14 @@
         <v>6.724082735302042</v>
       </c>
       <c r="C3" t="n">
-        <v>5.106645561260892</v>
+        <v>6.025160828942479</v>
       </c>
       <c r="D3" t="n">
         <v>2.022611188075511</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>9.522007334472145</v>
+      </c>
       <c r="F3" t="n">
         <v>3.095868534634304</v>
       </c>
@@ -531,7 +535,7 @@
         <v>4.928941295925464</v>
       </c>
       <c r="C4" t="n">
-        <v>6.089698944253206</v>
+        <v>9.409620166348361</v>
       </c>
       <c r="D4" t="n">
         <v>11.37740490479416</v>
